--- a/doc/tasks-track-v3.xlsx
+++ b/doc/tasks-track-v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\coding-case\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903A0FEF-0CEE-455F-9446-BACE47772797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96B8C0B-1106-413E-B1C9-EE283D832081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Category</t>
   </si>
@@ -76,9 +73,6 @@
     <t>Total Effort:</t>
   </si>
   <si>
-    <t>3-High</t>
-  </si>
-  <si>
     <t>2-Medium</t>
   </si>
   <si>
@@ -86,22 +80,24 @@
   </si>
   <si>
     <t>0-Done</t>
-  </si>
-  <si>
-    <t>Files/Links：file:///c:/xxx
-Email: aaa
-Note: aaa
-Confluence: aaa
-Jira: feature/aaa
-GitPR: aaa
-Jenkins: aaa
-Evidences (UT/AT/PT/Regression/SAST/DAST/FOSS/ContainerScan): aaa
-SnowCR/Version/ID etc.: aaa
-Env,FE,BE,DB,etc: 3-High,2-Medium,1-Low,0-Done/Open,In-progress,Pending,Blocked,Cancelled,Done</t>
   </si>
   <si>
     <t>Daily continuously follow up!!!
 Build sso login, (When, Where, Who, What, Why, How To, Result), so that it improves user login experice.</t>
+  </si>
+  <si>
+    <t>##Files/Links：file:///c:/xxx
+##Email: aaa                                     ##Note: aaa
+##Confluence: aaa\\                         ##Jira: feature/aaa
+##GitPR: aaa                                     ##Jenkins: aaa
+##Evidences (UT/AT/PT/Regression/SAST/DAST/FOSS/ContainerScan): aaa
+##SnowCR/Version/ID etc.: aaa         ##Env,FE,BE,DB,etc: 3-High,2-Medium,1-Low,0-Done/Open,In-progress,Pending,Blocked,Cancelled,Done</t>
+  </si>
+  <si>
+    <t>BAU-Continuous Tasks</t>
+  </si>
+  <si>
+    <t>4-Top</t>
   </si>
 </sst>
 </file>
@@ -460,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="133" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="97" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.9140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
@@ -484,173 +480,104 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="19" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="140.5" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:12" ht="97" customHeight="1">
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="4">
         <v>46022</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="133" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="97" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="97" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="97" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="133" customHeight="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="133" customHeight="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="133" customHeight="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="133" customHeight="1">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="133" customHeight="1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="133" customHeight="1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="133" customHeight="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="133" customHeight="1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="133" customHeight="1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="133" customHeight="1">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="133" customHeight="1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="133" customHeight="1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="133" customHeight="1">
-      <c r="A16" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L16" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L5">
       <sortCondition descending="1" ref="E1:E16"/>
     </sortState>
   </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"3-High,2-Medium,1-Low,0-Done"</formula1>
+      <formula1>"4-Top,3-High,2-Medium,1-Low,0-Done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{7071FB78-B1A9-4E95-A4EF-A56272063B9F}">
       <formula1>"Open,In-progress,Pending,Blocked,Cancelled,Done"</formula1>
@@ -676,7 +603,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <f>SUM('Tasks Track'!G2:G100)</f>
